--- a/Assets/Data/Table/Convert/Interaction_LevelObj.xlsx
+++ b/Assets/Data/Table/Convert/Interaction_LevelObj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6806C3E-4B52-493B-9DCE-D20D62FBA5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29A5170-2C53-4E01-B536-26514B29A4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelObj" sheetId="1" r:id="rId1"/>
@@ -112,14 +112,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.LevelObj.
+    <t>Em.LevelObj.
 LevelObjType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.LevelObj.
+  </si>
+  <si>
+    <t>Em.LevelObj.
 InteractionPointType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,50 +214,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,71 +546,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="88.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,9 +631,8 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -655,12 +651,8 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
